--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\GIT_desktop\Sandbox_city_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B523D-3A9F-49CE-8792-C94CB6D9CE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93724ABB-0026-4221-A647-163B0FEF8E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Kto</t>
   </si>
@@ -324,13 +324,43 @@
   </si>
   <si>
     <t>Zbieracz_5</t>
+  </si>
+  <si>
+    <t>Export_Food</t>
+  </si>
+  <si>
+    <t>Export_Buildings</t>
+  </si>
+  <si>
+    <t>Export_Tools</t>
+  </si>
+  <si>
+    <t>Export_Tools_materials</t>
+  </si>
+  <si>
+    <t>Export_Other</t>
+  </si>
+  <si>
+    <t>Export_Safety</t>
+  </si>
+  <si>
+    <t>Export_Fun</t>
+  </si>
+  <si>
+    <t>Export_Wood</t>
+  </si>
+  <si>
+    <t>Export_Stone</t>
+  </si>
+  <si>
+    <t>Export_Herbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,16 +389,29 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -385,18 +428,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -678,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A61"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,6 +832,7 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <f>SUM(C2:M2)</f>
         <v>20</v>
       </c>
     </row>
@@ -818,6 +877,7 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">SUM(C3:M3)</f>
         <v>-20</v>
       </c>
     </row>
@@ -862,6 +922,7 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -906,6 +967,7 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -950,6 +1012,7 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -994,6 +1057,7 @@
         <v>0</v>
       </c>
       <c r="N7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1038,6 +1102,7 @@
         <v>0</v>
       </c>
       <c r="N8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1082,6 +1147,7 @@
         <v>0</v>
       </c>
       <c r="N9">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1126,6 +1192,7 @@
         <v>0</v>
       </c>
       <c r="N10">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -1170,6 +1237,7 @@
         <v>0</v>
       </c>
       <c r="N11">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -1214,6 +1282,7 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1258,6 +1327,7 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1302,6 +1372,7 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1346,6 +1417,7 @@
         <v>0</v>
       </c>
       <c r="N15">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1390,6 +1462,7 @@
         <v>0</v>
       </c>
       <c r="N16">
+        <f t="shared" si="0"/>
         <v>980</v>
       </c>
     </row>
@@ -1434,6 +1507,7 @@
         <v>0</v>
       </c>
       <c r="N17">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1478,6 +1552,7 @@
         <v>0</v>
       </c>
       <c r="N18">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
@@ -1522,6 +1597,7 @@
         <v>0</v>
       </c>
       <c r="N19">
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
@@ -1566,6 +1642,7 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
     </row>
@@ -1610,6 +1687,7 @@
         <v>0</v>
       </c>
       <c r="N21">
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
@@ -1654,6 +1732,7 @@
         <v>0</v>
       </c>
       <c r="N22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1698,6 +1777,7 @@
         <v>0</v>
       </c>
       <c r="N23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1742,6 +1822,7 @@
         <v>0</v>
       </c>
       <c r="N24">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1786,6 +1867,7 @@
         <v>0</v>
       </c>
       <c r="N25">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1830,6 +1912,7 @@
         <v>0</v>
       </c>
       <c r="N26">
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
@@ -1874,6 +1957,7 @@
         <v>0</v>
       </c>
       <c r="N27">
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
@@ -1918,6 +2002,7 @@
         <v>0</v>
       </c>
       <c r="N28">
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
@@ -1962,6 +2047,7 @@
         <v>0</v>
       </c>
       <c r="N29">
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
     </row>
@@ -2006,6 +2092,7 @@
         <v>0</v>
       </c>
       <c r="N30">
+        <f t="shared" si="0"/>
         <v>1460</v>
       </c>
     </row>
@@ -2050,6 +2137,7 @@
         <v>0</v>
       </c>
       <c r="N31">
+        <f t="shared" si="0"/>
         <v>6240</v>
       </c>
     </row>
@@ -2094,6 +2182,7 @@
         <v>0</v>
       </c>
       <c r="N32">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2138,6 +2227,7 @@
         <v>0</v>
       </c>
       <c r="N33">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2182,6 +2272,7 @@
         <v>0</v>
       </c>
       <c r="N34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2226,6 +2317,7 @@
         <v>0</v>
       </c>
       <c r="N35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2270,6 +2362,7 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
     </row>
@@ -2314,6 +2407,7 @@
         <v>0</v>
       </c>
       <c r="N37">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2358,6 +2452,7 @@
         <v>0</v>
       </c>
       <c r="N38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2402,6 +2497,7 @@
         <v>0</v>
       </c>
       <c r="N39">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2446,6 +2542,7 @@
         <v>0</v>
       </c>
       <c r="N40">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2490,6 +2587,7 @@
         <v>0</v>
       </c>
       <c r="N41">
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
@@ -2534,6 +2632,7 @@
         <v>0</v>
       </c>
       <c r="N42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2578,6 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N43">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2622,6 +2722,7 @@
         <v>0</v>
       </c>
       <c r="N44">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2666,6 +2767,7 @@
         <v>0</v>
       </c>
       <c r="N45">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2710,6 +2812,7 @@
         <v>0</v>
       </c>
       <c r="N46">
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
@@ -2754,6 +2857,7 @@
         <v>0</v>
       </c>
       <c r="N47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2798,6 +2902,7 @@
         <v>0</v>
       </c>
       <c r="N48">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2842,6 +2947,7 @@
         <v>0</v>
       </c>
       <c r="N49">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2886,6 +2992,7 @@
         <v>0</v>
       </c>
       <c r="N50">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2930,6 +3037,7 @@
         <v>0</v>
       </c>
       <c r="N51">
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
     </row>
@@ -2974,6 +3082,7 @@
         <v>0</v>
       </c>
       <c r="N52">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3018,6 +3127,7 @@
         <v>0</v>
       </c>
       <c r="N53">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3062,6 +3172,7 @@
         <v>0</v>
       </c>
       <c r="N54">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3106,6 +3217,7 @@
         <v>0</v>
       </c>
       <c r="N55">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -3150,6 +3262,7 @@
         <v>0</v>
       </c>
       <c r="N56">
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
     </row>
@@ -3194,6 +3307,7 @@
         <v>0</v>
       </c>
       <c r="N57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3238,6 +3352,7 @@
         <v>0</v>
       </c>
       <c r="N58">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3282,6 +3397,7 @@
         <v>0</v>
       </c>
       <c r="N59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3326,6 +3442,7 @@
         <v>0</v>
       </c>
       <c r="N60">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3370,6 +3487,7 @@
         <v>0</v>
       </c>
       <c r="N61">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
@@ -3414,6 +3532,7 @@
         <v>0</v>
       </c>
       <c r="N62">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3458,6 +3577,7 @@
         <v>0</v>
       </c>
       <c r="N63">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3502,6 +3622,7 @@
         <v>-100</v>
       </c>
       <c r="N64">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3546,6 +3667,7 @@
         <v>1500</v>
       </c>
       <c r="N65">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3590,6 +3712,7 @@
         <v>0</v>
       </c>
       <c r="N66">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3634,6 +3757,7 @@
         <v>0</v>
       </c>
       <c r="N67">
+        <f t="shared" ref="N67:N93" si="1">SUM(C67:M67)</f>
         <v>0</v>
       </c>
     </row>
@@ -3678,6 +3802,7 @@
         <v>0</v>
       </c>
       <c r="N68">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3722,6 +3847,7 @@
         <v>0</v>
       </c>
       <c r="N69">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3766,6 +3892,7 @@
         <v>0</v>
       </c>
       <c r="N70">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3810,6 +3937,7 @@
         <v>0</v>
       </c>
       <c r="N71">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3854,6 +3982,7 @@
         <v>0</v>
       </c>
       <c r="N72">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3898,6 +4027,7 @@
         <v>0</v>
       </c>
       <c r="N73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3942,6 +4072,7 @@
         <v>0</v>
       </c>
       <c r="N74">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3986,6 +4117,7 @@
         <v>0</v>
       </c>
       <c r="N75">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4030,6 +4162,7 @@
         <v>0</v>
       </c>
       <c r="N76">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4074,6 +4207,7 @@
         <v>0</v>
       </c>
       <c r="N77">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4118,6 +4252,7 @@
         <v>0</v>
       </c>
       <c r="N78">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4162,6 +4297,7 @@
         <v>500</v>
       </c>
       <c r="N79">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4206,6 +4342,7 @@
         <v>1500</v>
       </c>
       <c r="N80">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4250,6 +4387,7 @@
         <v>0</v>
       </c>
       <c r="N81">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4294,6 +4432,7 @@
         <v>0</v>
       </c>
       <c r="N82">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4338,8 +4477,485 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\GIT_desktop\Sandbox_city_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93724ABB-0026-4221-A647-163B0FEF8E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB357B5E-0603-48CA-9DAC-995708C552D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>Tools_materials</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>Export_Tools</t>
   </si>
   <si>
-    <t>Export_Tools_materials</t>
-  </si>
-  <si>
     <t>Export_Other</t>
   </si>
   <si>
@@ -354,6 +348,12 @@
   </si>
   <si>
     <t>Export_Herbs</t>
+  </si>
+  <si>
+    <t>Export_Materials</t>
+  </si>
+  <si>
+    <t>Materials</t>
   </si>
 </sst>
 </file>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="R85" sqref="R85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +755,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>24</v>
@@ -763,37 +763,37 @@
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>165</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>61</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>21</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>85</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>45</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>42</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>170</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>11</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>45</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>45</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>11</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>41</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51">
         <v>165</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55">
         <v>41</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56">
         <v>165</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B93">
         <v>0</v>
